--- a/manualTest.xlsx
+++ b/manualTest.xlsx
@@ -115,309 +115,85 @@
     <t xml:space="preserve">User clicks on Nokia lumia 1520</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nokia lumia 1520</t>
-    </r>
+    <t xml:space="preserve">User sees details of Nokia lumia 1520</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Nexus 6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nexus 6</t>
-    </r>
+    <t xml:space="preserve">User sees details of Nexus 6</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Samsung galaxy s7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Samsung galaxy s7</t>
-    </r>
+    <t xml:space="preserve">User sees details of Samsung galaxy s7</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on iphone 6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">iphone 6</t>
-    </r>
+    <t xml:space="preserve">User sees details of iphone 6</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Sony xperia z5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sony xperia z5</t>
-    </r>
+    <t xml:space="preserve">User sees details of Sony xperia z5</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on HTC One M9</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HTC One M9</t>
-    </r>
+    <t xml:space="preserve">User sees details of HTC One M9</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Sony vaio i5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sony vaio i5</t>
-    </r>
+    <t xml:space="preserve">User sees details of Sony vaio i5</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Sony vaio i7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sony vaio i7</t>
-    </r>
+    <t xml:space="preserve">User sees details of Sony vaio i7</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Macbook air</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Macbook air</t>
-    </r>
+    <t xml:space="preserve">User sees details of Macbook air</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Dell i7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dell i7</t>
-    </r>
+    <t xml:space="preserve">User sees details of Dell i7</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on 2017 Dell 15.6 Inch</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2017 Dell 15.6 Inch</t>
-    </r>
+    <t xml:space="preserve">User sees details of 2017 Dell 15.6 Inch</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on MacBook Pro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MacBook Pro</t>
-    </r>
+    <t xml:space="preserve">User sees details of MacBook Pro</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on Apple monitor 24</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Apple monitor 24</t>
-    </r>
+    <t xml:space="preserve">User sees details of Apple monitor 24</t>
   </si>
   <si>
     <t xml:space="preserve">User clicks on ASUS Full HD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">User sees details of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ASUS Full HD</t>
-    </r>
+    <t xml:space="preserve">User sees details of ASUS Full HD</t>
   </si>
   <si>
     <t xml:space="preserve">Add Product to Cart </t>
@@ -496,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -517,11 +293,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -571,7 +342,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,17 +365,17 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.35"/>
   </cols>
   <sheetData>
